--- a/TestCases 10/Test Case.xlsx
+++ b/TestCases 10/Test Case.xlsx
@@ -9,31 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Case" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Case (2)" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Case (3)" sheetId="3" r:id="rId3"/>
-    <sheet name="Test Case (4)" sheetId="4" r:id="rId4"/>
-    <sheet name="Test Case (5)" sheetId="5" r:id="rId5"/>
-    <sheet name="Test Case (6)" sheetId="6" r:id="rId6"/>
-    <sheet name="Test Case (7)" sheetId="7" r:id="rId7"/>
-    <sheet name="Test Case (8)" sheetId="8" r:id="rId8"/>
-    <sheet name="Test Case (9)" sheetId="13" r:id="rId9"/>
-    <sheet name="Test Case (10)" sheetId="14" r:id="rId10"/>
+    <sheet name="Login Page" sheetId="1" r:id="rId1"/>
+    <sheet name="Main Page" sheetId="2" r:id="rId2"/>
+    <sheet name="Support Center Page" sheetId="3" r:id="rId3"/>
+    <sheet name="Sign up Page" sheetId="4" r:id="rId4"/>
+    <sheet name="Video API Page" sheetId="8" r:id="rId5"/>
+    <sheet name="Developers Page" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mjJGGU0yLtyKEkVIzrOeWkucXHMpQ=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -77,15 +68,6 @@
     <t>https://telnyx.com/ is opened</t>
   </si>
   <si>
-    <t>Click Login in link</t>
-  </si>
-  <si>
-    <t>Log in page is opened</t>
-  </si>
-  <si>
-    <t>Email address is entered</t>
-  </si>
-  <si>
     <t>Password is entered</t>
   </si>
   <si>
@@ -110,15 +92,9 @@
     <t>Click Support Center link</t>
   </si>
   <si>
-    <t>Support Center page is opened</t>
-  </si>
-  <si>
     <t>Enter valid information in the Search input</t>
   </si>
   <si>
-    <t>Information  is entered</t>
-  </si>
-  <si>
     <t>Press enter key</t>
   </si>
   <si>
@@ -131,18 +107,9 @@
     <t>Click Log In link</t>
   </si>
   <si>
-    <t>Sign Up page is opened</t>
-  </si>
-  <si>
-    <t>Name is entered</t>
-  </si>
-  <si>
     <t>Check "I agree to the Terms and Conditions and Telnyx's Privacy Policy"checkbox</t>
   </si>
   <si>
-    <t>"I agree to the Terms and Conditions and Telnyx's Privacy Policy"checkbox is cheched</t>
-  </si>
-  <si>
     <t>Click "Create Account" button</t>
   </si>
   <si>
@@ -158,21 +125,12 @@
     <t>Search Input should be cleared</t>
   </si>
   <si>
-    <t>Check Log In Page with valid but not registered Data</t>
-  </si>
-  <si>
-    <t>Log In page is opened</t>
-  </si>
-  <si>
     <t>Message "This field is required." should appear</t>
   </si>
   <si>
     <t>Click Video API link</t>
   </si>
   <si>
-    <t>Video API page is opened</t>
-  </si>
-  <si>
     <t>Check that the features Rooms API, Screen sharing, Call Recording, PSTN Dial-in, Speaker Detection, Text Chat, Multi-track, Participants API is visible.</t>
   </si>
   <si>
@@ -188,9 +146,6 @@
     <t>Mouseover to the link to Products page</t>
   </si>
   <si>
-    <t>Products popover to display is shown.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on "See all Products" link </t>
   </si>
   <si>
@@ -203,9 +158,6 @@
     <t xml:space="preserve">Click on "Developer Docs" link </t>
   </si>
   <si>
-    <t>Developers page is opened</t>
-  </si>
-  <si>
     <t>Click on "Create Account" button</t>
   </si>
   <si>
@@ -224,9 +176,6 @@
     <t>The "Log in with Microsoft" button  should be visible</t>
   </si>
   <si>
-    <t>Check registration with a not valid email and valid data in Sign up link on the Main page</t>
-  </si>
-  <si>
     <t>The message "Please enter a valid email address." should appear</t>
   </si>
   <si>
@@ -246,6 +195,54 @@
   </si>
   <si>
     <t>The page Sign Up should be opened and "Create a free account" label should be visible</t>
+  </si>
+  <si>
+    <t>Click Login link</t>
+  </si>
+  <si>
+    <t>Log In page should be opened</t>
+  </si>
+  <si>
+    <t>Email address should be entered</t>
+  </si>
+  <si>
+    <t>Password should be entered</t>
+  </si>
+  <si>
+    <t>Support Center page should be opened</t>
+  </si>
+  <si>
+    <t>Information  should be entered</t>
+  </si>
+  <si>
+    <t>Sign Up page should be opened</t>
+  </si>
+  <si>
+    <t>Name should be entered</t>
+  </si>
+  <si>
+    <t>"I agree to the Terms and Conditions and Telnyx's Privacy Policy" checkbox should be cheched</t>
+  </si>
+  <si>
+    <t>Log in page should be opened</t>
+  </si>
+  <si>
+    <t>Video API page should be opened</t>
+  </si>
+  <si>
+    <t>Products popover to display should be shown.</t>
+  </si>
+  <si>
+    <t>Developers page should be opened</t>
+  </si>
+  <si>
+    <t>Check Login with valid but not registered Data in Login Page</t>
+  </si>
+  <si>
+    <t>Click Sign up button</t>
+  </si>
+  <si>
+    <t>Check registration with a not valid email and valid data in Sign up page</t>
   </si>
 </sst>
 </file>
@@ -262,36 +259,50 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -731,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -824,9 +835,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1052,10 +1060,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1074,19 +1082,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1136,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1175,11 +1185,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="31" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="8"/>
@@ -1191,11 +1201,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="31" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="8"/>
@@ -1207,11 +1217,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="31" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="8"/>
@@ -1223,11 +1233,11 @@
         <v>4</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="8"/>
@@ -1258,7 +1268,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>7</v>
       </c>
@@ -1270,7 +1280,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>11</v>
       </c>
@@ -1284,8 +1294,244 @@
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
     </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>7</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="54">
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B12:C12"/>
@@ -1318,281 +1564,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1618,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -1714,11 +1694,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="31" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="8"/>
@@ -1730,11 +1710,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="31" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="8"/>
@@ -1815,8 +1795,217 @@
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
     </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>7</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="54">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -1844,6 +2033,33 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1854,10 +2070,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1883,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -1979,11 +2195,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="31" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="8"/>
@@ -1995,11 +2211,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="31" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="8"/>
@@ -2011,11 +2227,11 @@
         <v>3</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="8"/>
@@ -2084,8 +2300,247 @@
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
     </row>
+    <row r="19" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>7</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="54">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -2123,10 +2578,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2151,8 +2606,8 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>63</v>
+      <c r="D1" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -2248,12 +2703,12 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>30</v>
+      <c r="B8" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="30" t="s">
-        <v>32</v>
+      <c r="D8" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="8"/>
@@ -2265,11 +2720,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="31" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="8"/>
@@ -2281,43 +2736,43 @@
         <v>3</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C10" s="28"/>
-      <c r="D10" s="30" t="s">
-        <v>33</v>
+      <c r="D10" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="42"/>
+      <c r="B11" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="41"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>5</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C12" s="28"/>
-      <c r="D12" s="30" t="s">
-        <v>35</v>
+      <c r="D12" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="8"/>
@@ -2329,11 +2784,11 @@
         <v>6</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="8"/>
@@ -2366,8 +2821,217 @@
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
     </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>6</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>7</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="54">
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:H15"/>
@@ -2395,6 +3059,33 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2402,269 +3093,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2692,12 +3120,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="16"/>
@@ -2735,15 +3163,15 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
@@ -2793,562 +3221,28 @@
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>24</v>
+      <c r="B8" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="31" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
     <row r="9" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>2</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="31" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="8"/>
@@ -3464,7 +3358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3472,7 +3366,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3492,13 +3386,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>49</v>
+      <c r="D1" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
@@ -3594,11 +3488,11 @@
         <v>1</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8" s="28"/>
-      <c r="D8" s="30" t="s">
-        <v>51</v>
+      <c r="D8" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="8"/>
@@ -3610,11 +3504,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="8"/>
